--- a/ru/downloads/data-excel/4.2.2.1a.xlsx
+++ b/ru/downloads/data-excel/4.2.2.1a.xlsx
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -271,6 +271,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -575,9 +579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -585,7 +591,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -596,7 +602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -607,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -619,7 +625,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -650,8 +656,11 @@
       <c r="J4" s="7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -682,8 +691,11 @@
       <c r="J5" s="8">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -714,8 +726,11 @@
       <c r="J6" s="2">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="12">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -746,8 +761,11 @@
       <c r="J7" s="2">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="12">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
@@ -778,8 +796,11 @@
       <c r="J8" s="8">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="11">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -810,8 +831,11 @@
       <c r="J9" s="2">
         <v>42.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -842,8 +866,11 @@
       <c r="J10" s="2">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -874,8 +901,11 @@
       <c r="J11" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -906,8 +936,11 @@
       <c r="J12" s="2">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="12">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -938,8 +971,11 @@
       <c r="J13" s="2">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="12">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -970,8 +1006,11 @@
       <c r="J14" s="8">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1002,8 +1041,11 @@
       <c r="J15" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="12">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1034,8 +1076,11 @@
       <c r="J16" s="2">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1066,8 +1111,11 @@
       <c r="J17" s="8">
         <v>35.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="11">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1098,8 +1146,11 @@
       <c r="J18" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="12">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1130,8 +1181,11 @@
       <c r="J19" s="2">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="12">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>31</v>
       </c>
@@ -1162,8 +1216,11 @@
       <c r="J20" s="8">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1194,8 +1251,11 @@
       <c r="J21" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1226,8 +1286,11 @@
       <c r="J22" s="2">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="12">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
@@ -1258,8 +1321,11 @@
       <c r="J23" s="8">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="11">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1290,8 +1356,11 @@
       <c r="J24" s="2">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="12">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1322,8 +1391,11 @@
       <c r="J25" s="2">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="12">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1354,8 +1426,11 @@
       <c r="J26" s="8">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="11">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1386,8 +1461,11 @@
       <c r="J27" s="2">
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="12">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -1418,8 +1496,11 @@
       <c r="J28" s="2">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="12">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
@@ -1450,8 +1531,11 @@
       <c r="J29" s="8">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="11">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>35</v>
       </c>
@@ -1481,6 +1565,9 @@
       </c>
       <c r="J30" s="6">
         <v>43.3</v>
+      </c>
+      <c r="K30" s="13">
+        <v>30.7</v>
       </c>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/4.2.2.1a.xlsx
+++ b/ru/downloads/data-excel/4.2.2.1a.xlsx
@@ -155,7 +155,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +204,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,10 +268,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -275,9 +306,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Normal_PPI" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_ССП Социальный" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -579,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -591,7 +648,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -602,7 +659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -613,7 +670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -625,7 +682,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -659,8 +716,11 @@
       <c r="K4" s="10">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -694,8 +754,11 @@
       <c r="K5" s="11">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="14">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -729,8 +792,11 @@
       <c r="K6" s="12">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="15">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -764,8 +830,11 @@
       <c r="K7" s="12">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="16">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
@@ -799,8 +868,11 @@
       <c r="K8" s="11">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="17">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -834,8 +906,11 @@
       <c r="K9" s="12">
         <v>39.799999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="18">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -869,8 +944,11 @@
       <c r="K10" s="12">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="16">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -904,8 +982,11 @@
       <c r="K11" s="11">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="17">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -939,8 +1020,11 @@
       <c r="K12" s="12">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="16">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -974,8 +1058,11 @@
       <c r="K13" s="12">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="16">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1009,8 +1096,11 @@
       <c r="K14" s="11">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="17">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1044,8 +1134,11 @@
       <c r="K15" s="12">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="16">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1079,8 +1172,11 @@
       <c r="K16" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="16">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1114,8 +1210,11 @@
       <c r="K17" s="11">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="19">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1149,8 +1248,11 @@
       <c r="K18" s="12">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="16">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1184,8 +1286,11 @@
       <c r="K19" s="12">
         <v>33.299999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="18">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>31</v>
       </c>
@@ -1219,8 +1324,11 @@
       <c r="K20" s="11">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="17">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1254,8 +1362,11 @@
       <c r="K21" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="16">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1289,8 +1400,11 @@
       <c r="K22" s="12">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="16">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
@@ -1324,8 +1438,11 @@
       <c r="K23" s="11">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="17">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1359,8 +1476,11 @@
       <c r="K24" s="12">
         <v>52.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="16">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1394,8 +1514,11 @@
       <c r="K25" s="12">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="16">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1429,8 +1552,11 @@
       <c r="K26" s="11">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="17">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1464,8 +1590,11 @@
       <c r="K27" s="12">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="19">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -1499,8 +1628,11 @@
       <c r="K28" s="12">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="16">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
@@ -1534,8 +1666,11 @@
       <c r="K29" s="11">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="20">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>35</v>
       </c>
@@ -1568,6 +1703,9 @@
       </c>
       <c r="K30" s="13">
         <v>30.7</v>
+      </c>
+      <c r="L30" s="21">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/4.2.2.1a.xlsx
+++ b/ru/downloads/data-excel/4.2.2.1a.xlsx
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,6 +330,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_PPI" xfId="1"/>
@@ -636,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -648,7 +649,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -659,7 +660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -670,7 +671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -682,7 +683,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -719,8 +720,11 @@
       <c r="L4" s="10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -757,8 +761,11 @@
       <c r="L5" s="14">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="11">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -795,8 +802,11 @@
       <c r="L6" s="15">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="12">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="L7" s="16">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="12">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
@@ -871,8 +884,11 @@
       <c r="L8" s="17">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="11">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -909,8 +925,11 @@
       <c r="L9" s="18">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="12">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -947,8 +966,11 @@
       <c r="L10" s="16">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="12">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -985,8 +1007,11 @@
       <c r="L11" s="17">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="11">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1023,8 +1048,11 @@
       <c r="L12" s="16">
         <v>34.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="12">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1061,8 +1089,11 @@
       <c r="L13" s="16">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="12">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1099,8 +1130,11 @@
       <c r="L14" s="17">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1137,8 +1171,11 @@
       <c r="L15" s="16">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="12">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1175,8 +1212,11 @@
       <c r="L16" s="16">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="12">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1213,8 +1253,11 @@
       <c r="L17" s="19">
         <v>37.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="11">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1251,8 +1294,11 @@
       <c r="L18" s="16">
         <v>51.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="12">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1289,8 +1335,11 @@
       <c r="L19" s="18">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="12">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>31</v>
       </c>
@@ -1327,8 +1376,11 @@
       <c r="L20" s="17">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="11">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1365,8 +1417,11 @@
       <c r="L21" s="16">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="12">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1403,8 +1458,11 @@
       <c r="L22" s="16">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="12">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
@@ -1441,8 +1499,11 @@
       <c r="L23" s="17">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="11">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1479,8 +1540,11 @@
       <c r="L24" s="16">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="12">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1517,8 +1581,11 @@
       <c r="L25" s="16">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="12">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1555,8 +1622,11 @@
       <c r="L26" s="17">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="11">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1593,8 +1663,11 @@
       <c r="L27" s="19">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="12">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -1631,8 +1704,11 @@
       <c r="L28" s="16">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="12">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
@@ -1669,8 +1745,11 @@
       <c r="L29" s="20">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="11">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>35</v>
       </c>
@@ -1706,6 +1785,9 @@
       </c>
       <c r="L30" s="21">
         <v>29</v>
+      </c>
+      <c r="M30" s="21">
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/4.2.2.1a.xlsx
+++ b/ru/downloads/data-excel/4.2.2.1a.xlsx
@@ -67,9 +67,6 @@
     <t>Items</t>
   </si>
   <si>
-    <t>4.2.2.1a Балдарды мектепке чейинки билим берүүгө камтуу</t>
-  </si>
-  <si>
     <t>4.2.2.1a Coverage of children in preschool education</t>
   </si>
   <si>
@@ -91,12 +88,6 @@
     <t>айыл жерлери</t>
   </si>
   <si>
-    <t>urban settlements</t>
-  </si>
-  <si>
-    <t>countryside</t>
-  </si>
-  <si>
     <t>Баткен облусу</t>
   </si>
   <si>
@@ -149,6 +140,15 @@
   </si>
   <si>
     <t>Osh city</t>
+  </si>
+  <si>
+    <t>4.2.2.1а Балдарды мектепке чейин билим берүү менен камтуу</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>rural</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,6 +331,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_PPI" xfId="1"/>
@@ -637,11 +638,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -649,29 +648,29 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -683,7 +682,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -723,16 +722,19 @@
       <c r="M4" s="10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8">
         <v>17.5</v>
@@ -764,16 +766,19 @@
       <c r="M5" s="11">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="22">
+        <v>28.34784779265912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2">
         <v>31.6</v>
@@ -805,16 +810,19 @@
       <c r="M6" s="12">
         <v>40.700000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="23">
+        <v>39.999446500300472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2">
         <v>10.8</v>
@@ -846,16 +854,19 @@
       <c r="M7" s="12">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="23">
+        <v>23.198557483143556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="8">
         <v>16.100000000000001</v>
@@ -887,16 +898,19 @@
       <c r="M8" s="11">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="22">
+        <v>27.597876990321573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
         <v>33.299999999999997</v>
@@ -928,16 +942,19 @@
       <c r="M9" s="12">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="23">
+        <v>47.175678010018999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
         <v>10.199999999999999</v>
@@ -969,16 +986,19 @@
       <c r="M10" s="12">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="23">
+        <v>22.17579894112394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8">
         <v>15.2</v>
@@ -1010,16 +1030,19 @@
       <c r="M11" s="11">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="22">
+        <v>24.100104034215697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2">
         <v>27.4</v>
@@ -1051,16 +1074,19 @@
       <c r="M12" s="12">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="23">
+        <v>38.296287676015361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2">
         <v>10.3</v>
@@ -1092,16 +1118,19 @@
       <c r="M13" s="12">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="23">
+        <v>19.410249509822766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8">
         <v>17.399999999999999</v>
@@ -1133,16 +1162,19 @@
       <c r="M14" s="22">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="22">
+        <v>30.400174646089773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2">
         <v>34.200000000000003</v>
@@ -1174,16 +1206,19 @@
       <c r="M15" s="12">
         <v>44.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N15" s="23">
+        <v>44.562134629854725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2">
         <v>9.4</v>
@@ -1215,16 +1250,19 @@
       <c r="M16" s="12">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="23">
+        <v>24.612036336109007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="8">
         <v>19.600000000000001</v>
@@ -1256,16 +1294,19 @@
       <c r="M17" s="11">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="22">
+        <v>39.266683582846994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2">
         <v>32.6</v>
@@ -1297,16 +1338,19 @@
       <c r="M18" s="12">
         <v>53.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="23">
+        <v>54.818496110630946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2">
         <v>17.5</v>
@@ -1338,16 +1382,19 @@
       <c r="M19" s="12">
         <v>33.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="23">
+        <v>36.591078066914498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="8">
         <v>11.6</v>
@@ -1379,16 +1426,19 @@
       <c r="M20" s="11">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="22">
+        <v>23.890520476423561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2">
         <v>15</v>
@@ -1420,16 +1470,19 @@
       <c r="M21" s="12">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="23">
+        <v>16.93085228577992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2">
         <v>11.4</v>
@@ -1461,16 +1514,19 @@
       <c r="M22" s="12">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="23">
+        <v>24.386979772654026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="8">
         <v>14.4</v>
@@ -1502,16 +1558,19 @@
       <c r="M23" s="11">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="22">
+        <v>28.919699950811605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2">
         <v>49.4</v>
@@ -1543,16 +1602,19 @@
       <c r="M24" s="12">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N24" s="23">
+        <v>37.932834522359492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2">
         <v>10.3</v>
@@ -1584,16 +1646,19 @@
       <c r="M25" s="12">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N25" s="23">
+        <v>26.985549456704376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D26" s="8">
         <v>12.5</v>
@@ -1625,16 +1690,19 @@
       <c r="M26" s="11">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N26" s="22">
+        <v>27.190143693828379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2">
         <v>24.3</v>
@@ -1666,16 +1734,19 @@
       <c r="M27" s="12">
         <v>46.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="23">
+        <v>54.006768771869439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2">
         <v>9.3000000000000007</v>
@@ -1707,16 +1778,19 @@
       <c r="M28" s="12">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="23">
+        <v>22.334624692306893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29" s="8">
         <v>31</v>
@@ -1748,16 +1822,19 @@
       <c r="M29" s="11">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="22">
+        <v>36.01461582008131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D30" s="6">
         <v>41.9</v>
@@ -1788,6 +1865,9 @@
       </c>
       <c r="M30" s="21">
         <v>44.5</v>
+      </c>
+      <c r="N30" s="21">
+        <v>42.081208505725009</v>
       </c>
     </row>
   </sheetData>
